--- a/massa de dados.xlsx
+++ b/massa de dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>Nome_Cliente</t>
   </si>
@@ -65,27 +65,12 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>Bebida</t>
-  </si>
-  <si>
-    <t>Sabor Pizza</t>
-  </si>
-  <si>
-    <t>Chocolate</t>
-  </si>
-  <si>
     <t>Pedido 003</t>
   </si>
   <si>
     <t>Pedido 002</t>
   </si>
   <si>
-    <t>Pepsi Lata</t>
-  </si>
-  <si>
-    <t>Suco de limão 400ml</t>
-  </si>
-  <si>
     <t>Nº Mesa</t>
   </si>
   <si>
@@ -95,39 +80,18 @@
     <t>Maria Regina</t>
   </si>
   <si>
-    <t>Fernanda</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
     <t>Bruno da Silva</t>
   </si>
   <si>
     <t>Data e horario</t>
   </si>
   <si>
-    <t>12/06/15 - 22:05</t>
-  </si>
-  <si>
-    <t>12/06/15 - 21:50</t>
-  </si>
-  <si>
-    <t>12/06/15 - 20:20</t>
-  </si>
-  <si>
     <t>Codigo</t>
   </si>
   <si>
     <t>Sabor da pizza</t>
   </si>
   <si>
-    <t>Posição no Rank</t>
-  </si>
-  <si>
-    <t>Porcentagem</t>
-  </si>
-  <si>
     <t>Chocolotate</t>
   </si>
   <si>
@@ -137,33 +101,50 @@
     <t>Amanda Silveira</t>
   </si>
   <si>
-    <t>Relatório Mais Vendidas</t>
-  </si>
-  <si>
-    <t>Priscila</t>
-  </si>
-  <si>
-    <t>12/06/15 - 19:30</t>
-  </si>
-  <si>
     <t>Pedido 004</t>
   </si>
   <si>
     <t>Garçom</t>
+  </si>
+  <si>
+    <t>Qtd</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Ravelli</t>
+  </si>
+  <si>
+    <t>20/06/15 - 20:20</t>
+  </si>
+  <si>
+    <t>25/06/15 - 20:00</t>
+  </si>
+  <si>
+    <t>12/06/15 - 21:00</t>
+  </si>
+  <si>
+    <t>10/06/15 - 21:30</t>
+  </si>
+  <si>
+    <t>Cbruno da Silva</t>
+  </si>
+  <si>
+    <t>Total - junho</t>
+  </si>
+  <si>
+    <t>Relatório Mais Vendidas do mês</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -236,19 +217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -270,45 +238,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,31 +497,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,36 +576,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'+vendidas'!$C$3:$C$11</c:f>
+              <c:f>'+vendidas'!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -574,15 +620,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -893,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -909,22 +955,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -934,76 +980,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>30</v>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1013,12 +1059,50 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1031,68 +1115,68 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>29</v>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1100,7 +1184,9 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1108,16 +1194,54 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1137,74 +1261,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>28</v>
+      <c r="E3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1214,16 +1336,54 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1231,74 +1391,74 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="F2" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>40</v>
+      <c r="A3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1308,16 +1468,54 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1338,15 +1536,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="3">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1354,7 +1552,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="3">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1362,7 +1560,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="3">
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1370,7 +1568,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1378,7 +1576,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1386,7 +1584,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1394,7 +1592,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1402,7 +1600,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1410,7 +1608,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1418,7 +1616,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1435,139 +1633,116 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <f>SUM(Pedido1!C3+Pedido2!C3+Pedido3!C3+Pedido4!C3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <f>SUM(Pedido1!C4+Pedido2!C4+Pedido3!C4+Pedido4!C4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <f>SUM(Pedido1!C5+Pedido2!C5+Pedido3!C5+Pedido4!C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <f>SUM(Pedido1!C6+Pedido2!C6+Pedido3!C6+Pedido4!C6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <f>SUM(Pedido1!C7+Pedido2!C7+Pedido3!C7+Pedido4!C7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SUM(Pedido1!C8+Pedido2!C8+Pedido3!C8+Pedido4!C8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <f>SUM(Pedido1!C9+Pedido2!C9+Pedido3!C9+Pedido4!C9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
-        <v>7</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <f>SUM(Pedido1!C10+Pedido2!C10+Pedido3!C10+Pedido4!C10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.09</v>
+      <c r="B11" s="3">
+        <f>SUM(Pedido1!C11+Pedido2!C11+Pedido3!C11+Pedido4!C11)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
